--- a/data_craw/quarter/balance_sheet_quarter/mbb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/mbb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2320396000000</v>
+        <v>2545596000000</v>
       </c>
       <c r="C4" t="n">
-        <v>2344291000000</v>
+        <v>3109230000000</v>
       </c>
       <c r="D4" t="n">
-        <v>2253056000000</v>
+        <v>2771244000000</v>
       </c>
       <c r="E4" t="n">
-        <v>2509108000000</v>
+        <v>3029898000000</v>
       </c>
       <c r="F4" t="n">
-        <v>2545596000000</v>
+        <v>2947002000000</v>
       </c>
       <c r="G4" t="n">
-        <v>3109230000000</v>
+        <v>3475341000000</v>
       </c>
       <c r="H4" t="n">
-        <v>2771244000000</v>
+        <v>3157903000000</v>
       </c>
       <c r="I4" t="n">
-        <v>3029898000000</v>
+        <v>3205723000000</v>
       </c>
       <c r="J4" t="n">
-        <v>2947002000000</v>
+        <v>3135579000000</v>
       </c>
       <c r="K4" t="n">
-        <v>3475341000000</v>
+        <v>3744100000000</v>
       </c>
       <c r="L4" t="n">
-        <v>3157903000000</v>
+        <v>2965368000000</v>
       </c>
       <c r="M4" t="n">
-        <v>3205723000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3135579000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3744100000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2965368000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>3168566000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7117589000000</v>
+        <v>8209927000000</v>
       </c>
       <c r="C7" t="n">
-        <v>14347180000000</v>
+        <v>17296506000000</v>
       </c>
       <c r="D7" t="n">
-        <v>6763149000000</v>
+        <v>8771043000000</v>
       </c>
       <c r="E7" t="n">
-        <v>9173365000000</v>
+        <v>1443851000000</v>
       </c>
       <c r="F7" t="n">
-        <v>8209927000000</v>
+        <v>13754420000000</v>
       </c>
       <c r="G7" t="n">
-        <v>17296506000000</v>
+        <v>38051039000000</v>
       </c>
       <c r="H7" t="n">
-        <v>8771043000000</v>
+        <v>16517561000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1443851000000</v>
+        <v>14222237000000</v>
       </c>
       <c r="J7" t="n">
-        <v>13754420000000</v>
+        <v>12383244000000</v>
       </c>
       <c r="K7" t="n">
-        <v>38051039000000</v>
+        <v>39654541000000</v>
       </c>
       <c r="L7" t="n">
-        <v>16517561000000</v>
+        <v>19077374000000</v>
       </c>
       <c r="M7" t="n">
-        <v>14222237000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12383244000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>39654541000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>19077374000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>27503661000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47469375000000</v>
+        <v>30609927000000</v>
       </c>
       <c r="C11" t="n">
-        <v>39691364000000</v>
+        <v>47888802000000</v>
       </c>
       <c r="D11" t="n">
-        <v>47792908000000</v>
+        <v>42550511000000</v>
       </c>
       <c r="E11" t="n">
-        <v>39202383000000</v>
+        <v>32592326000000</v>
       </c>
       <c r="F11" t="n">
-        <v>30609927000000</v>
+        <v>50452980000000</v>
       </c>
       <c r="G11" t="n">
-        <v>47888802000000</v>
+        <v>35983193000000</v>
       </c>
       <c r="H11" t="n">
-        <v>42550511000000</v>
+        <v>48938002000000</v>
       </c>
       <c r="I11" t="n">
-        <v>32592326000000</v>
+        <v>57116354000000</v>
       </c>
       <c r="J11" t="n">
-        <v>50452980000000</v>
+        <v>37194092000000</v>
       </c>
       <c r="K11" t="n">
-        <v>35983193000000</v>
+        <v>32937210000000</v>
       </c>
       <c r="L11" t="n">
-        <v>48938002000000</v>
+        <v>32264103000000</v>
       </c>
       <c r="M11" t="n">
-        <v>57116354000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>37194092000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>32937210000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>32264103000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>21618233000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1037,53 +1013,45 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1615709000000</v>
+        <v>1302244000000</v>
       </c>
       <c r="C20" t="n">
-        <v>1167809000000</v>
+        <v>3085227000000</v>
       </c>
       <c r="D20" t="n">
-        <v>1246147000000</v>
+        <v>3633495000000</v>
       </c>
       <c r="E20" t="n">
-        <v>1518915000000</v>
+        <v>4212128000000</v>
       </c>
       <c r="F20" t="n">
-        <v>1302244000000</v>
+        <v>3550077000000</v>
       </c>
       <c r="G20" t="n">
-        <v>3085227000000</v>
+        <v>7575274000000</v>
       </c>
       <c r="H20" t="n">
-        <v>3633495000000</v>
+        <v>5658004000000</v>
       </c>
       <c r="I20" t="n">
-        <v>4212128000000</v>
+        <v>7987706000000</v>
       </c>
       <c r="J20" t="n">
-        <v>3550077000000</v>
+        <v>5904210000000</v>
       </c>
       <c r="K20" t="n">
-        <v>7575274000000</v>
+        <v>4105550000000</v>
       </c>
       <c r="L20" t="n">
-        <v>5658004000000</v>
+        <v>3910585000000</v>
       </c>
       <c r="M20" t="n">
-        <v>7987706000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5904210000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4105550000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3910585000000</v>
-      </c>
-      <c r="Q20" t="n">
         <v>22891806000000</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1092,53 +1060,45 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1694021000000</v>
+        <v>1326522000000</v>
       </c>
       <c r="C21" t="n">
-        <v>1196887000000</v>
+        <v>3102030000000</v>
       </c>
       <c r="D21" t="n">
-        <v>1319440000000</v>
+        <v>3652454000000</v>
       </c>
       <c r="E21" t="n">
-        <v>1549447000000</v>
+        <v>4229320000000</v>
       </c>
       <c r="F21" t="n">
-        <v>1326522000000</v>
+        <v>3564183000000</v>
       </c>
       <c r="G21" t="n">
-        <v>3102030000000</v>
+        <v>7582673000000</v>
       </c>
       <c r="H21" t="n">
-        <v>3652454000000</v>
+        <v>5676601000000</v>
       </c>
       <c r="I21" t="n">
-        <v>4229320000000</v>
+        <v>7999245000000</v>
       </c>
       <c r="J21" t="n">
-        <v>3564183000000</v>
+        <v>5907186000000</v>
       </c>
       <c r="K21" t="n">
-        <v>7582673000000</v>
+        <v>4107470000000</v>
       </c>
       <c r="L21" t="n">
-        <v>5676601000000</v>
+        <v>3911585000000</v>
       </c>
       <c r="M21" t="n">
-        <v>7999245000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5907186000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4107470000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3911585000000</v>
-      </c>
-      <c r="Q21" t="n">
         <v>22891881000000</v>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1147,51 +1107,45 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-78312000000</v>
+        <v>-24278000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-29076000000</v>
+        <v>-16803000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-73293000000</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>-18959000000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-17192000000</v>
+      </c>
       <c r="F22" t="n">
-        <v>-24278000000</v>
+        <v>-14106000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-16803000000</v>
+        <v>-7399000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-18959000000</v>
+        <v>-18597000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-17192000000</v>
+        <v>-11539000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-14106000000</v>
+        <v>-2976000000</v>
       </c>
       <c r="K22" t="n">
-        <v>-7399000000</v>
+        <v>-1920000000</v>
       </c>
       <c r="L22" t="n">
-        <v>-18597000000</v>
+        <v>-1000000000</v>
       </c>
       <c r="M22" t="n">
-        <v>-11539000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2976000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-1920000000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-1000000000</v>
-      </c>
-      <c r="Q22" t="n">
         <v>-75000000</v>
       </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1199,44 +1153,38 @@
           <t>V.Tài sản ngắn hạn khác</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>78238000000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>14836000000</v>
-      </c>
-      <c r="D23" t="n">
-        <v>128201000000</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>88496000000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>219771000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>274294000000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>282178000000</v>
+      </c>
       <c r="I23" t="n">
-        <v>88496000000</v>
+        <v>153645000000</v>
       </c>
       <c r="J23" t="n">
-        <v>219771000000</v>
+        <v>216685000000</v>
       </c>
       <c r="K23" t="n">
-        <v>274294000000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>282178000000</v>
-      </c>
+        <v>69503000000</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>153645000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>216685000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>69503000000</v>
-      </c>
+        <v>183059000000</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>183059000000</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1383,53 +1331,45 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>885826000000</v>
+        <v>885134000000</v>
       </c>
       <c r="C30" t="n">
-        <v>887017000000</v>
+        <v>885231000000</v>
       </c>
       <c r="D30" t="n">
-        <v>877305000000</v>
+        <v>882482000000</v>
       </c>
       <c r="E30" t="n">
-        <v>866870000000</v>
+        <v>878710000000</v>
       </c>
       <c r="F30" t="n">
-        <v>885134000000</v>
+        <v>853646000000</v>
       </c>
       <c r="G30" t="n">
-        <v>885231000000</v>
+        <v>803208000000</v>
       </c>
       <c r="H30" t="n">
-        <v>882482000000</v>
+        <v>784261000000</v>
       </c>
       <c r="I30" t="n">
-        <v>878710000000</v>
+        <v>552165000000</v>
       </c>
       <c r="J30" t="n">
-        <v>853646000000</v>
+        <v>552080000000</v>
       </c>
       <c r="K30" t="n">
-        <v>803208000000</v>
+        <v>625267000000</v>
       </c>
       <c r="L30" t="n">
-        <v>784261000000</v>
+        <v>699228000000</v>
       </c>
       <c r="M30" t="n">
-        <v>552165000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>552080000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>625267000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>699228000000</v>
-      </c>
-      <c r="Q30" t="n">
         <v>676292000000</v>
       </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1507,53 +1447,45 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1036779000000</v>
+        <v>1026465000000</v>
       </c>
       <c r="C34" t="n">
-        <v>1037453000000</v>
+        <v>1026562000000</v>
       </c>
       <c r="D34" t="n">
-        <v>1037415000000</v>
+        <v>1023813000000</v>
       </c>
       <c r="E34" t="n">
-        <v>1008552000000</v>
+        <v>1017711000000</v>
       </c>
       <c r="F34" t="n">
-        <v>1026465000000</v>
+        <v>1015745000000</v>
       </c>
       <c r="G34" t="n">
-        <v>1026562000000</v>
+        <v>940840000000</v>
       </c>
       <c r="H34" t="n">
-        <v>1023813000000</v>
+        <v>900219000000</v>
       </c>
       <c r="I34" t="n">
-        <v>1017711000000</v>
+        <v>668483000000</v>
       </c>
       <c r="J34" t="n">
-        <v>1015745000000</v>
+        <v>663398000000</v>
       </c>
       <c r="K34" t="n">
-        <v>940840000000</v>
+        <v>768763000000</v>
       </c>
       <c r="L34" t="n">
-        <v>900219000000</v>
+        <v>813650000000</v>
       </c>
       <c r="M34" t="n">
-        <v>668483000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>663398000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>768763000000</v>
-      </c>
-      <c r="P34" t="n">
         <v>813650000000</v>
       </c>
-      <c r="Q34" t="n">
-        <v>813650000000</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1608,53 +1540,45 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-150953000000</v>
+        <v>-141331000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-150436000000</v>
+        <v>-141331000000</v>
       </c>
       <c r="D37" t="n">
-        <v>-160110000000</v>
+        <v>-141331000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-141682000000</v>
+        <v>-139001000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-141331000000</v>
+        <v>-162099000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-141331000000</v>
+        <v>-137632000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-141331000000</v>
+        <v>-115958000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-139001000000</v>
+        <v>-116318000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-162099000000</v>
+        <v>-116318000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-137632000000</v>
+        <v>-143496000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-115958000000</v>
+        <v>-114422000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-116318000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-116318000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-143496000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-114422000000</v>
-      </c>
-      <c r="Q37" t="n">
         <v>-137358000000</v>
       </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1663,53 +1587,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2714853000000</v>
+        <v>4128176000000</v>
       </c>
       <c r="C38" t="n">
-        <v>2798062000000</v>
+        <v>4310919000000</v>
       </c>
       <c r="D38" t="n">
-        <v>2811235000000</v>
+        <v>4322258000000</v>
       </c>
       <c r="E38" t="n">
-        <v>2805764000000</v>
+        <v>4382620000000</v>
       </c>
       <c r="F38" t="n">
-        <v>4128176000000</v>
+        <v>4351583000000</v>
       </c>
       <c r="G38" t="n">
-        <v>4310919000000</v>
+        <v>4678447000000</v>
       </c>
       <c r="H38" t="n">
-        <v>4322258000000</v>
+        <v>4563473000000</v>
       </c>
       <c r="I38" t="n">
-        <v>4382620000000</v>
+        <v>4519204000000</v>
       </c>
       <c r="J38" t="n">
-        <v>4351583000000</v>
+        <v>4412298000000</v>
       </c>
       <c r="K38" t="n">
-        <v>4678447000000</v>
+        <v>5073508000000</v>
       </c>
       <c r="L38" t="n">
-        <v>4563473000000</v>
+        <v>5004586000000</v>
       </c>
       <c r="M38" t="n">
-        <v>4519204000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4412298000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>5073508000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5004586000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>4928489000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1718,53 +1634,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1593013000000</v>
+        <v>2937963000000</v>
       </c>
       <c r="C39" t="n">
-        <v>1642003000000</v>
+        <v>3088524000000</v>
       </c>
       <c r="D39" t="n">
-        <v>1644903000000</v>
+        <v>3050504000000</v>
       </c>
       <c r="E39" t="n">
-        <v>1634249000000</v>
+        <v>3086810000000</v>
       </c>
       <c r="F39" t="n">
-        <v>2937963000000</v>
+        <v>3025144000000</v>
       </c>
       <c r="G39" t="n">
-        <v>3088524000000</v>
+        <v>3213906000000</v>
       </c>
       <c r="H39" t="n">
-        <v>3050504000000</v>
+        <v>3122191000000</v>
       </c>
       <c r="I39" t="n">
-        <v>3086810000000</v>
+        <v>3100691000000</v>
       </c>
       <c r="J39" t="n">
-        <v>3025144000000</v>
+        <v>3008546000000</v>
       </c>
       <c r="K39" t="n">
-        <v>3213906000000</v>
+        <v>3457561000000</v>
       </c>
       <c r="L39" t="n">
-        <v>3122191000000</v>
+        <v>3394729000000</v>
       </c>
       <c r="M39" t="n">
-        <v>3100691000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3008546000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>3457561000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3394729000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>3283901000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1773,53 +1681,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3460452000000</v>
+        <v>5108604000000</v>
       </c>
       <c r="C40" t="n">
-        <v>3585813000000</v>
+        <v>5387069000000</v>
       </c>
       <c r="D40" t="n">
-        <v>3664414000000</v>
+        <v>5499997000000</v>
       </c>
       <c r="E40" t="n">
-        <v>3732187000000</v>
+        <v>5698270000000</v>
       </c>
       <c r="F40" t="n">
-        <v>5108604000000</v>
+        <v>5779234000000</v>
       </c>
       <c r="G40" t="n">
-        <v>5387069000000</v>
+        <v>6083517000000</v>
       </c>
       <c r="H40" t="n">
-        <v>5499997000000</v>
+        <v>6171885000000</v>
       </c>
       <c r="I40" t="n">
-        <v>5698270000000</v>
+        <v>6333293000000</v>
       </c>
       <c r="J40" t="n">
-        <v>5779234000000</v>
+        <v>6398385000000</v>
       </c>
       <c r="K40" t="n">
-        <v>6083517000000</v>
+        <v>7110562000000</v>
       </c>
       <c r="L40" t="n">
-        <v>6171885000000</v>
+        <v>7258857000000</v>
       </c>
       <c r="M40" t="n">
-        <v>6333293000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6398385000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>7110562000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>7258857000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>7386277000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1828,53 +1728,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1876439000000</v>
+        <v>-2170641000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-1943810000000</v>
+        <v>-2298545000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-2019511000000</v>
+        <v>-2449493000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-2097938000000</v>
+        <v>-2611460000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-2170641000000</v>
+        <v>-2754090000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-2298545000000</v>
+        <v>-2869611000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-2449493000000</v>
+        <v>-3049694000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-2611460000000</v>
+        <v>-3232602000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-2754090000000</v>
+        <v>-3389839000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-2869611000000</v>
+        <v>-3653001000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-3049694000000</v>
+        <v>-3864128000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-3232602000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3389839000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-3653001000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-3864128000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-4102376000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1952,53 +1844,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1121840000000</v>
+        <v>1190213000000</v>
       </c>
       <c r="C45" t="n">
-        <v>1156059000000</v>
+        <v>1222395000000</v>
       </c>
       <c r="D45" t="n">
-        <v>1166332000000</v>
+        <v>1271754000000</v>
       </c>
       <c r="E45" t="n">
-        <v>1171515000000</v>
+        <v>1295810000000</v>
       </c>
       <c r="F45" t="n">
-        <v>1190213000000</v>
+        <v>1326439000000</v>
       </c>
       <c r="G45" t="n">
-        <v>1222395000000</v>
+        <v>1464541000000</v>
       </c>
       <c r="H45" t="n">
-        <v>1271754000000</v>
+        <v>1441282000000</v>
       </c>
       <c r="I45" t="n">
-        <v>1295810000000</v>
+        <v>1418513000000</v>
       </c>
       <c r="J45" t="n">
-        <v>1326439000000</v>
+        <v>1403752000000</v>
       </c>
       <c r="K45" t="n">
-        <v>1464541000000</v>
+        <v>1615947000000</v>
       </c>
       <c r="L45" t="n">
-        <v>1441282000000</v>
+        <v>1609857000000</v>
       </c>
       <c r="M45" t="n">
-        <v>1418513000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1403752000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1615947000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1609857000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>1644588000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2007,53 +1891,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1912515000000</v>
+        <v>2142003000000</v>
       </c>
       <c r="C46" t="n">
-        <v>1980168000000</v>
+        <v>2277564000000</v>
       </c>
       <c r="D46" t="n">
-        <v>22031952000000</v>
+        <v>2414591000000</v>
       </c>
       <c r="E46" t="n">
-        <v>2074704000000</v>
+        <v>2529618000000</v>
       </c>
       <c r="F46" t="n">
-        <v>2142003000000</v>
+        <v>2659992000000</v>
       </c>
       <c r="G46" t="n">
-        <v>2277564000000</v>
+        <v>2923616000000</v>
       </c>
       <c r="H46" t="n">
-        <v>2414591000000</v>
+        <v>3001757000000</v>
       </c>
       <c r="I46" t="n">
-        <v>2529618000000</v>
+        <v>3103794000000</v>
       </c>
       <c r="J46" t="n">
-        <v>2659992000000</v>
+        <v>3221863000000</v>
       </c>
       <c r="K46" t="n">
-        <v>2923616000000</v>
+        <v>3565092000000</v>
       </c>
       <c r="L46" t="n">
-        <v>3001757000000</v>
+        <v>3700141000000</v>
       </c>
       <c r="M46" t="n">
-        <v>3103794000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3221863000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>3565092000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3700141000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>3901576000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2062,53 +1938,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-790675000000</v>
+        <v>-951790000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-824109000000</v>
+        <v>-1055169000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-865620000000</v>
+        <v>-1142837000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-903189000000</v>
+        <v>-1233808000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-951790000000</v>
+        <v>-1333553000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1055169000000</v>
+        <v>-1459075000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-1142837000000</v>
+        <v>-1560475000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-1233808000000</v>
+        <v>-1685281000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-1333553000000</v>
+        <v>-1818111000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-1459075000000</v>
+        <v>-1949145000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-1560475000000</v>
+        <v>-2090284000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-1685281000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1818111000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-1949145000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-2090284000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-2256988000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2189,50 +2057,42 @@
         <v>30813000000</v>
       </c>
       <c r="C51" t="n">
-        <v>30813000000</v>
+        <v>247898000000</v>
       </c>
       <c r="D51" t="n">
-        <v>30813000000</v>
+        <v>246376000000</v>
       </c>
       <c r="E51" t="n">
-        <v>30813000000</v>
+        <v>244854000000</v>
       </c>
       <c r="F51" t="n">
-        <v>30813000000</v>
+        <v>243332000000</v>
       </c>
       <c r="G51" t="n">
-        <v>247898000000</v>
+        <v>268999000000</v>
       </c>
       <c r="H51" t="n">
-        <v>246376000000</v>
+        <v>267120000000</v>
       </c>
       <c r="I51" t="n">
-        <v>244854000000</v>
+        <v>239233000000</v>
       </c>
       <c r="J51" t="n">
-        <v>243332000000</v>
+        <v>237705000000</v>
       </c>
       <c r="K51" t="n">
-        <v>268999000000</v>
+        <v>236177000000</v>
       </c>
       <c r="L51" t="n">
-        <v>267120000000</v>
+        <v>234649000000</v>
       </c>
       <c r="M51" t="n">
-        <v>239233000000</v>
-      </c>
-      <c r="N51" t="n">
-        <v>237705000000</v>
-      </c>
-      <c r="O51" t="n">
-        <v>236177000000</v>
-      </c>
-      <c r="P51" t="n">
-        <v>234649000000</v>
-      </c>
-      <c r="Q51" t="n">
         <v>233122000000</v>
       </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2244,50 +2104,42 @@
         <v>30813000000</v>
       </c>
       <c r="C52" t="n">
-        <v>30813000000</v>
+        <v>249674000000</v>
       </c>
       <c r="D52" t="n">
-        <v>30813000000</v>
+        <v>249674000000</v>
       </c>
       <c r="E52" t="n">
-        <v>30813000000</v>
+        <v>249674000000</v>
       </c>
       <c r="F52" t="n">
-        <v>30813000000</v>
+        <v>249674000000</v>
       </c>
       <c r="G52" t="n">
-        <v>249674000000</v>
+        <v>285300000000</v>
       </c>
       <c r="H52" t="n">
-        <v>249674000000</v>
+        <v>285300000000</v>
       </c>
       <c r="I52" t="n">
-        <v>249674000000</v>
+        <v>250155000000</v>
       </c>
       <c r="J52" t="n">
-        <v>249674000000</v>
+        <v>250155000000</v>
       </c>
       <c r="K52" t="n">
-        <v>285300000000</v>
+        <v>250155000000</v>
       </c>
       <c r="L52" t="n">
-        <v>285300000000</v>
+        <v>250155000000</v>
       </c>
       <c r="M52" t="n">
         <v>250155000000</v>
       </c>
-      <c r="N52" t="n">
-        <v>250155000000</v>
-      </c>
-      <c r="O52" t="n">
-        <v>250155000000</v>
-      </c>
-      <c r="P52" t="n">
-        <v>250155000000</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>250155000000</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2296,43 +2148,43 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>-1776000000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-3298000000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-4820000000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-6342000000</v>
+      </c>
       <c r="G53" t="n">
-        <v>-1776000000</v>
+        <v>-16301000000</v>
       </c>
       <c r="H53" t="n">
-        <v>-3298000000</v>
+        <v>-18180000000</v>
       </c>
       <c r="I53" t="n">
-        <v>-4820000000</v>
+        <v>-10922000000</v>
       </c>
       <c r="J53" t="n">
-        <v>-6342000000</v>
+        <v>-12450000000</v>
       </c>
       <c r="K53" t="n">
-        <v>-16301000000</v>
+        <v>-13978000000</v>
       </c>
       <c r="L53" t="n">
-        <v>-18180000000</v>
+        <v>-15506000000</v>
       </c>
       <c r="M53" t="n">
-        <v>-10922000000</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-12450000000</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-13978000000</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-15506000000</v>
-      </c>
-      <c r="Q53" t="n">
         <v>-17033000000</v>
       </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2341,53 +2193,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>19929505000000</v>
+        <v>21910772000000</v>
       </c>
       <c r="C54" t="n">
-        <v>17447494000000</v>
+        <v>24464833000000</v>
       </c>
       <c r="D54" t="n">
-        <v>19165271000000</v>
+        <v>28692207000000</v>
       </c>
       <c r="E54" t="n">
-        <v>20586694000000</v>
+        <v>28265544000000</v>
       </c>
       <c r="F54" t="n">
-        <v>21910772000000</v>
+        <v>30373231000000</v>
       </c>
       <c r="G54" t="n">
-        <v>24464833000000</v>
+        <v>32425520000000</v>
       </c>
       <c r="H54" t="n">
-        <v>28692207000000</v>
+        <v>27605316000000</v>
       </c>
       <c r="I54" t="n">
-        <v>28265544000000</v>
+        <v>33784065000000</v>
       </c>
       <c r="J54" t="n">
-        <v>30373231000000</v>
+        <v>32426999000000</v>
       </c>
       <c r="K54" t="n">
-        <v>32425520000000</v>
+        <v>32901134000000</v>
       </c>
       <c r="L54" t="n">
-        <v>27605316000000</v>
+        <v>31993218000000</v>
       </c>
       <c r="M54" t="n">
-        <v>33784065000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>32426999000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>32901134000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>31993218000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>32611765000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2396,53 +2240,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13761023000000</v>
+        <v>15645120000000</v>
       </c>
       <c r="C55" t="n">
-        <v>3771711000000</v>
+        <v>18445213000000</v>
       </c>
       <c r="D55" t="n">
-        <v>13366679000000</v>
+        <v>22382326000000</v>
       </c>
       <c r="E55" t="n">
-        <v>14771400000000</v>
+        <v>20994188000000</v>
       </c>
       <c r="F55" t="n">
-        <v>15645120000000</v>
+        <v>22567762000000</v>
       </c>
       <c r="G55" t="n">
-        <v>18445213000000</v>
+        <v>23923205000000</v>
       </c>
       <c r="H55" t="n">
-        <v>22382326000000</v>
+        <v>18008469000000</v>
       </c>
       <c r="I55" t="n">
-        <v>20994188000000</v>
+        <v>23041572000000</v>
       </c>
       <c r="J55" t="n">
-        <v>22567762000000</v>
+        <v>21099581000000</v>
       </c>
       <c r="K55" t="n">
-        <v>23923205000000</v>
+        <v>20160561000000</v>
       </c>
       <c r="L55" t="n">
-        <v>18008469000000</v>
+        <v>17764764000000</v>
       </c>
       <c r="M55" t="n">
-        <v>23041572000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>21099581000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>20160561000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>17764764000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>17691466000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2451,53 +2287,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4086753000000</v>
+        <v>4032642000000</v>
       </c>
       <c r="C56" t="n">
-        <v>11471145000000</v>
+        <v>3782321000000</v>
       </c>
       <c r="D56" t="n">
-        <v>3583537000000</v>
+        <v>3974989000000</v>
       </c>
       <c r="E56" t="n">
-        <v>3628956000000</v>
+        <v>4554229000000</v>
       </c>
       <c r="F56" t="n">
-        <v>4032642000000</v>
+        <v>4750599000000</v>
       </c>
       <c r="G56" t="n">
-        <v>3782321000000</v>
+        <v>4599328000000</v>
       </c>
       <c r="H56" t="n">
-        <v>3974989000000</v>
+        <v>4945983000000</v>
       </c>
       <c r="I56" t="n">
-        <v>4554229000000</v>
+        <v>5390738000000</v>
       </c>
       <c r="J56" t="n">
-        <v>4750599000000</v>
+        <v>6033103000000</v>
       </c>
       <c r="K56" t="n">
-        <v>4599328000000</v>
+        <v>6786414000000</v>
       </c>
       <c r="L56" t="n">
-        <v>4945983000000</v>
+        <v>8269956000000</v>
       </c>
       <c r="M56" t="n">
-        <v>5390738000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>6033103000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>6786414000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>8269956000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>9384707000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2506,53 +2334,45 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12688000000</v>
+        <v>3221000000</v>
       </c>
       <c r="C57" t="n">
-        <v>3699000000</v>
+        <v>3436000000</v>
       </c>
       <c r="D57" t="n">
-        <v>3858000000</v>
+        <v>5408000000</v>
       </c>
       <c r="E57" t="n">
-        <v>2534000000</v>
+        <v>14998000000</v>
       </c>
       <c r="F57" t="n">
-        <v>3221000000</v>
+        <v>1774000000</v>
       </c>
       <c r="G57" t="n">
-        <v>3436000000</v>
+        <v>537000000</v>
       </c>
       <c r="H57" t="n">
-        <v>5408000000</v>
+        <v>7697000000</v>
       </c>
       <c r="I57" t="n">
-        <v>14998000000</v>
+        <v>16843000000</v>
       </c>
       <c r="J57" t="n">
-        <v>1774000000</v>
+        <v>15425000000</v>
       </c>
       <c r="K57" t="n">
-        <v>537000000</v>
+        <v>10986000000</v>
       </c>
       <c r="L57" t="n">
-        <v>7697000000</v>
+        <v>10785000000</v>
       </c>
       <c r="M57" t="n">
-        <v>16843000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>15425000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>10986000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>10785000000</v>
-      </c>
-      <c r="Q57" t="n">
         <v>10732000000</v>
       </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2561,53 +2381,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2358065000000</v>
+        <v>2479571000000</v>
       </c>
       <c r="C58" t="n">
-        <v>2475062000000</v>
+        <v>2280224000000</v>
       </c>
       <c r="D58" t="n">
-        <v>2499707000000</v>
+        <v>2377140000000</v>
       </c>
       <c r="E58" t="n">
-        <v>2434937000000</v>
+        <v>2749919000000</v>
       </c>
       <c r="F58" t="n">
-        <v>2479571000000</v>
+        <v>3095434000000</v>
       </c>
       <c r="G58" t="n">
-        <v>2280224000000</v>
+        <v>3961963000000</v>
       </c>
       <c r="H58" t="n">
-        <v>2377140000000</v>
+        <v>4719271000000</v>
       </c>
       <c r="I58" t="n">
-        <v>2749919000000</v>
+        <v>5532979000000</v>
       </c>
       <c r="J58" t="n">
-        <v>3095434000000</v>
+        <v>5525347000000</v>
       </c>
       <c r="K58" t="n">
-        <v>3961963000000</v>
+        <v>6174673000000</v>
       </c>
       <c r="L58" t="n">
-        <v>4719271000000</v>
+        <v>6133054000000</v>
       </c>
       <c r="M58" t="n">
-        <v>5532979000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5525347000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>6174673000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>6133054000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>5657402000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2616,53 +2428,45 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>57135000000</v>
+        <v>47613000000</v>
       </c>
       <c r="C59" t="n">
-        <v>57135000000</v>
+        <v>47613000000</v>
       </c>
       <c r="D59" t="n">
-        <v>57135000000</v>
+        <v>38090000000</v>
       </c>
       <c r="E59" t="n">
-        <v>47613000000</v>
+        <v>38090000000</v>
       </c>
       <c r="F59" t="n">
-        <v>47613000000</v>
+        <v>38090000000</v>
       </c>
       <c r="G59" t="n">
-        <v>47613000000</v>
+        <v>38090000000</v>
       </c>
       <c r="H59" t="n">
         <v>38090000000</v>
       </c>
       <c r="I59" t="n">
-        <v>38090000000</v>
+        <v>28568000000</v>
       </c>
       <c r="J59" t="n">
-        <v>38090000000</v>
+        <v>28568000000</v>
       </c>
       <c r="K59" t="n">
-        <v>38090000000</v>
+        <v>28568000000</v>
       </c>
       <c r="L59" t="n">
-        <v>38090000000</v>
+        <v>19045000000</v>
       </c>
       <c r="M59" t="n">
-        <v>28568000000</v>
-      </c>
-      <c r="N59" t="n">
-        <v>28568000000</v>
-      </c>
-      <c r="O59" t="n">
-        <v>28568000000</v>
-      </c>
-      <c r="P59" t="n">
         <v>19045000000</v>
       </c>
-      <c r="Q59" t="n">
-        <v>19045000000</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2855,53 +2659,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>397441105000000</v>
+        <v>427175325000000</v>
       </c>
       <c r="C68" t="n">
-        <v>411487575000000</v>
+        <v>494982162000000</v>
       </c>
       <c r="D68" t="n">
-        <v>406802682000000</v>
+        <v>510957496000000</v>
       </c>
       <c r="E68" t="n">
-        <v>421635683000000</v>
+        <v>523334486000000</v>
       </c>
       <c r="F68" t="n">
-        <v>427175325000000</v>
+        <v>555594688000000</v>
       </c>
       <c r="G68" t="n">
-        <v>494982162000000</v>
+        <v>607140419000000</v>
       </c>
       <c r="H68" t="n">
-        <v>510957496000000</v>
+        <v>649039794000000</v>
       </c>
       <c r="I68" t="n">
-        <v>523334486000000</v>
+        <v>658274396000000</v>
       </c>
       <c r="J68" t="n">
-        <v>555594688000000</v>
+        <v>656804225000000</v>
       </c>
       <c r="K68" t="n">
-        <v>607140419000000</v>
+        <v>728532373000000</v>
       </c>
       <c r="L68" t="n">
-        <v>649039794000000</v>
+        <v>760761405000000</v>
       </c>
       <c r="M68" t="n">
-        <v>658274396000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>656804225000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>728532373000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>760761405000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>806237587000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2910,53 +2706,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2633201000000</v>
+        <v>26599000000</v>
       </c>
       <c r="C69" t="n">
-        <v>16836000000</v>
+        <v>15383000000</v>
       </c>
       <c r="D69" t="n">
-        <v>50755000000</v>
+        <v>93085000000</v>
       </c>
       <c r="E69" t="n">
-        <v>23994000000</v>
+        <v>27125000000</v>
       </c>
       <c r="F69" t="n">
-        <v>26599000000</v>
+        <v>41973000000</v>
       </c>
       <c r="G69" t="n">
-        <v>15383000000</v>
+        <v>262281000000</v>
       </c>
       <c r="H69" t="n">
-        <v>93085000000</v>
+        <v>328585000000</v>
       </c>
       <c r="I69" t="n">
-        <v>27125000000</v>
+        <v>24408000000</v>
       </c>
       <c r="J69" t="n">
-        <v>41973000000</v>
+        <v>23056000000</v>
       </c>
       <c r="K69" t="n">
-        <v>262281000000</v>
+        <v>31788000000</v>
       </c>
       <c r="L69" t="n">
-        <v>328585000000</v>
+        <v>2547915000000</v>
       </c>
       <c r="M69" t="n">
-        <v>24408000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>23056000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>31788000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>2547915000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>48346000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3172,51 +2960,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>58395319000000</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>48014893000000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50876472000000</v>
+      </c>
       <c r="D79" t="n">
-        <v>69740500000000</v>
+        <v>45138386000000</v>
       </c>
       <c r="E79" t="n">
-        <v>60440378000000</v>
+        <v>40341392000000</v>
       </c>
       <c r="F79" t="n">
-        <v>48014893000000</v>
+        <v>65916196000000</v>
       </c>
       <c r="G79" t="n">
-        <v>50876472000000</v>
+        <v>59560384000000</v>
       </c>
       <c r="H79" t="n">
-        <v>45138386000000</v>
+        <v>86402081000000</v>
       </c>
       <c r="I79" t="n">
-        <v>40341392000000</v>
+        <v>62770943000000</v>
       </c>
       <c r="J79" t="n">
-        <v>65916196000000</v>
+        <v>63171996000000</v>
       </c>
       <c r="K79" t="n">
-        <v>59560384000000</v>
+        <v>65116779000000</v>
       </c>
       <c r="L79" t="n">
-        <v>86402081000000</v>
+        <v>76745163000000</v>
       </c>
       <c r="M79" t="n">
-        <v>62770943000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>63171996000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>65116779000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>76745163000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>87145499000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3317,53 +3099,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>254130038000000</v>
+        <v>269189328000000</v>
       </c>
       <c r="C84" t="n">
-        <v>272709512000000</v>
+        <v>310960354000000</v>
       </c>
       <c r="D84" t="n">
-        <v>240737125000000</v>
+        <v>327926697000000</v>
       </c>
       <c r="E84" t="n">
-        <v>257378873000000</v>
+        <v>343494329000000</v>
       </c>
       <c r="F84" t="n">
-        <v>269189328000000</v>
+        <v>343949438000000</v>
       </c>
       <c r="G84" t="n">
-        <v>310960354000000</v>
+        <v>384692155000000</v>
       </c>
       <c r="H84" t="n">
-        <v>327926697000000</v>
+        <v>390173507000000</v>
       </c>
       <c r="I84" t="n">
-        <v>343494329000000</v>
+        <v>396909793000000</v>
       </c>
       <c r="J84" t="n">
-        <v>343949438000000</v>
+        <v>377145234000000</v>
       </c>
       <c r="K84" t="n">
-        <v>384692155000000</v>
+        <v>443605638000000</v>
       </c>
       <c r="L84" t="n">
-        <v>390173507000000</v>
+        <v>452414711000000</v>
       </c>
       <c r="M84" t="n">
-        <v>396909793000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>377145234000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>443605638000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>452414711000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>475406125000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3578,31 +3352,29 @@
           <t>10. Cổ phiếu ưu đãi</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>112356000000</v>
+      </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="n">
-        <v>136818000000</v>
-      </c>
+      <c r="D94" t="n">
+        <v>127008000000</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>112356000000</v>
+        <v>1700733000000</v>
       </c>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="n">
-        <v>127008000000</v>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1700733000000</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>30603000000</v>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="n">
-        <v>30603000000</v>
-      </c>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3681,53 +3453,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>359758135000000</v>
+        <v>378921331000000</v>
       </c>
       <c r="C98" t="n">
-        <v>371601761000000</v>
+        <v>444882667000000</v>
       </c>
       <c r="D98" t="n">
-        <v>362818632000000</v>
+        <v>457233731000000</v>
       </c>
       <c r="E98" t="n">
-        <v>375837182000000</v>
+        <v>467399715000000</v>
       </c>
       <c r="F98" t="n">
-        <v>378921331000000</v>
+        <v>496747295000000</v>
       </c>
       <c r="G98" t="n">
-        <v>444882667000000</v>
+        <v>544654396000000</v>
       </c>
       <c r="H98" t="n">
-        <v>457233731000000</v>
+        <v>581976246000000</v>
       </c>
       <c r="I98" t="n">
-        <v>467399715000000</v>
+        <v>587367590000000</v>
       </c>
       <c r="J98" t="n">
-        <v>496747295000000</v>
+        <v>580894349000000</v>
       </c>
       <c r="K98" t="n">
-        <v>544654396000000</v>
+        <v>648919154000000</v>
       </c>
       <c r="L98" t="n">
-        <v>581976246000000</v>
+        <v>675993922000000</v>
       </c>
       <c r="M98" t="n">
-        <v>587367590000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>580894349000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>648919154000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>675993922000000</v>
-      </c>
-      <c r="Q98" t="n">
         <v>720168463000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3759,53 +3523,45 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>21604514000000</v>
+        <v>24370429000000</v>
       </c>
       <c r="C100" t="n">
-        <v>23727323000000</v>
+        <v>27987569000000</v>
       </c>
       <c r="D100" t="n">
-        <v>24370429000000</v>
+        <v>27987569000000</v>
       </c>
       <c r="E100" t="n">
-        <v>24370429000000</v>
+        <v>27987569000000</v>
       </c>
       <c r="F100" t="n">
-        <v>24370429000000</v>
+        <v>37783218000000</v>
       </c>
       <c r="G100" t="n">
-        <v>27987569000000</v>
+        <v>37783218000000</v>
       </c>
       <c r="H100" t="n">
-        <v>27987569000000</v>
+        <v>37783218000000</v>
       </c>
       <c r="I100" t="n">
-        <v>27987569000000</v>
+        <v>37783218000000</v>
       </c>
       <c r="J100" t="n">
         <v>37783218000000</v>
       </c>
       <c r="K100" t="n">
-        <v>37783218000000</v>
+        <v>45339861000000</v>
       </c>
       <c r="L100" t="n">
-        <v>37783218000000</v>
+        <v>45339861000000</v>
       </c>
       <c r="M100" t="n">
-        <v>37783218000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>37783218000000</v>
-      </c>
-      <c r="O100" t="n">
         <v>45339861000000</v>
       </c>
-      <c r="P100" t="n">
-        <v>45339861000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>45339861000000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3882,19 +3638,23 @@
           <t>3. Quyền chọn chuyển đổi trái phiếu</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>1177563000000</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1177563000000</v>
+      </c>
       <c r="D104" t="n">
-        <v>1177563000000</v>
+        <v>869327000000</v>
       </c>
       <c r="E104" t="n">
-        <v>1177563000000</v>
+        <v>869327000000</v>
       </c>
       <c r="F104" t="n">
-        <v>1177563000000</v>
+        <v>869327000000</v>
       </c>
       <c r="G104" t="n">
-        <v>1177563000000</v>
+        <v>869327000000</v>
       </c>
       <c r="H104" t="n">
         <v>869327000000</v>
@@ -3914,18 +3674,10 @@
       <c r="M104" t="n">
         <v>869327000000</v>
       </c>
-      <c r="N104" t="n">
-        <v>869327000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>869327000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>869327000000</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>869327000000</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3934,23 +3686,15 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1036712000000</v>
+        <v>-564397000000</v>
       </c>
       <c r="C105" t="n">
-        <v>-1036712000000</v>
-      </c>
-      <c r="D105" t="n">
         <v>-564397000000</v>
       </c>
-      <c r="E105" t="n">
-        <v>-564397000000</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-564397000000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-564397000000</v>
-      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3992,53 +3736,45 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>27834000000</v>
+        <v>124945000000</v>
       </c>
       <c r="C107" t="n">
-        <v>27834000000</v>
+        <v>124945000000</v>
       </c>
       <c r="D107" t="n">
         <v>124945000000</v>
       </c>
       <c r="E107" t="n">
-        <v>124945000000</v>
+        <v>415811000000</v>
       </c>
       <c r="F107" t="n">
-        <v>124945000000</v>
+        <v>415811000000</v>
       </c>
       <c r="G107" t="n">
-        <v>124945000000</v>
+        <v>665811000000</v>
       </c>
       <c r="H107" t="n">
-        <v>124945000000</v>
+        <v>665811000000</v>
       </c>
       <c r="I107" t="n">
-        <v>415811000000</v>
+        <v>665811000000</v>
       </c>
       <c r="J107" t="n">
-        <v>415811000000</v>
+        <v>962472000000</v>
       </c>
       <c r="K107" t="n">
-        <v>665811000000</v>
+        <v>1387521000000</v>
       </c>
       <c r="L107" t="n">
-        <v>665811000000</v>
+        <v>1387521000000</v>
       </c>
       <c r="M107" t="n">
-        <v>665811000000</v>
-      </c>
-      <c r="N107" t="n">
-        <v>962472000000</v>
-      </c>
-      <c r="O107" t="n">
-        <v>1387521000000</v>
-      </c>
-      <c r="P107" t="n">
-        <v>1387521000000</v>
-      </c>
-      <c r="Q107" t="n">
         <v>1416911000000</v>
       </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4116,53 +3852,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5036633000000</v>
+        <v>6347862000000</v>
       </c>
       <c r="C111" t="n">
-        <v>4936914000000</v>
+        <v>6224836000000</v>
       </c>
       <c r="D111" t="n">
-        <v>4927170000000</v>
+        <v>6197523000000</v>
       </c>
       <c r="E111" t="n">
-        <v>6390112000000</v>
+        <v>7545687000000</v>
       </c>
       <c r="F111" t="n">
-        <v>6347862000000</v>
+        <v>7594718000000</v>
       </c>
       <c r="G111" t="n">
-        <v>6224836000000</v>
+        <v>7341330000000</v>
       </c>
       <c r="H111" t="n">
-        <v>6197523000000</v>
+        <v>7201766000000</v>
       </c>
       <c r="I111" t="n">
-        <v>7545687000000</v>
+        <v>9495330000000</v>
       </c>
       <c r="J111" t="n">
-        <v>7594718000000</v>
+        <v>9320952000000</v>
       </c>
       <c r="K111" t="n">
-        <v>7341330000000</v>
+        <v>9288618000000</v>
       </c>
       <c r="L111" t="n">
-        <v>7201766000000</v>
+        <v>9261266000000</v>
       </c>
       <c r="M111" t="n">
-        <v>9495330000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9320952000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>9288618000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>9261266000000</v>
-      </c>
-      <c r="Q111" t="n">
         <v>12046162000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4295,16 +4023,16 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>-14449000000</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-9945000000</v>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>-14449000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>-9945000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
